--- a/6WLS-CHB-BOM.xlsx
+++ b/6WLS-CHB-BOM.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Qty</t>
   </si>
@@ -82,18 +82,6 @@
     <t>Z_MOUSER</t>
   </si>
   <si>
-    <t>MTA05-156</t>
-  </si>
-  <si>
-    <t>1X5MTA</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>AMP connector</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -199,10 +187,19 @@
     <t>418-CHB75-12S15</t>
   </si>
   <si>
-    <t>282834-5</t>
-  </si>
-  <si>
-    <t>TE</t>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>277-1250-ND</t>
+  </si>
+  <si>
+    <t>Terminal Block</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>MKDSN</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +543,7 @@
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -588,26 +585,29 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>1729157</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -615,19 +615,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -635,19 +635,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,19 +655,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,28 +675,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -704,31 +704,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -736,31 +736,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
